--- a/tests/test_xls/sheet_txns_pivot/test_columns/test_columns_total/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns_pivot/test_columns/test_columns_total/expected_result.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>-201701.35</v>
+        <v>-181022.72</v>
       </c>
     </row>
     <row r="3">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>397885.47</v>
+        <v>338613.39</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>-176696.98</v>
+        <v>-179006</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2261009.38</v>
+        <v>2254401.67</v>
       </c>
     </row>
     <row r="6">
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>-88086.52</v>
+        <v>-80719.32000000001</v>
       </c>
     </row>
     <row r="7">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>-185466.77</v>
+        <v>-190509.04</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>-72695.45</v>
+        <v>-80232.52</v>
       </c>
     </row>
     <row r="9">
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>-246784.22</v>
+        <v>-279746.85</v>
       </c>
     </row>
     <row r="10">
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>-136221.54</v>
+        <v>-141099.22</v>
       </c>
     </row>
     <row r="11">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>969257.8100000001</v>
+        <v>965763.85</v>
       </c>
     </row>
     <row r="12">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>-969257.8100000001</v>
+        <v>-965763.85</v>
       </c>
     </row>
     <row r="13">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>-79360.62</v>
+        <v>-83002.44</v>
       </c>
     </row>
     <row r="14">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>465530.73</v>
+        <v>413324.54</v>
       </c>
     </row>
     <row r="15">
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B15" s="5" t="n">
-        <v>1937412.13</v>
+        <v>1791001.49</v>
       </c>
     </row>
   </sheetData>
